--- a/Investigacion/Marketing/4P5C/Pricing/Calculo.xlsx
+++ b/Investigacion/Marketing/4P5C/Pricing/Calculo.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Propuesta 1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Accidentes por hora</t>
   </si>
@@ -55,16 +55,56 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Parque automotor</t>
+  </si>
+  <si>
+    <t>Expectativa de nuevos clientes</t>
+  </si>
+  <si>
+    <t>Accidentes por vehículo por año</t>
+  </si>
+  <si>
+    <t>Cuota promedio de seguro</t>
+  </si>
+  <si>
+    <t>Ingreso anual por asegurado</t>
+  </si>
+  <si>
+    <t>Gasto promedio por siniestro</t>
+  </si>
+  <si>
+    <t>Gasto promedio por siniestros de asegurado en el año</t>
+  </si>
+  <si>
+    <t>Gasto promedio por siniestros de todos los asegurados en el año</t>
+  </si>
+  <si>
+    <t>Dejamos la mitad en ganancia</t>
+  </si>
+  <si>
+    <t>Cuota mensual a cobrar</t>
+  </si>
+  <si>
+    <t>Valor de la consulta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF404040"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -90,8 +130,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -511,13 +553,124 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B2:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <f>C2/C3</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <f>C7*12</f>
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <f>C9*C6</f>
+        <v>214.28571428571428</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <f>C10*C4</f>
+        <v>96428.57142857142</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <f>C11/2</f>
+        <v>48214.28571428571</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <f>C12/12</f>
+        <v>4017.8571428571427</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <f>C12/C4</f>
+        <v>107.14285714285714</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Investigacion/Marketing/4P5C/Pricing/Calculo.xlsx
+++ b/Investigacion/Marketing/4P5C/Pricing/Calculo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -11,7 +11,7 @@
     <sheet name="Propuesta 1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -434,7 +434,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -556,10 +556,10 @@
   <dimension ref="B2:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="59.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
@@ -680,7 +680,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Investigacion/Marketing/4P5C/Pricing/Calculo.xlsx
+++ b/Investigacion/Marketing/4P5C/Pricing/Calculo.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Propuesta 1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Propuesta 2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
   <si>
     <t>Accidentes por hora</t>
   </si>
@@ -88,6 +88,147 @@
   </si>
   <si>
     <t>Valor de la consulta</t>
+  </si>
+  <si>
+    <t>Cantidad total de asegurados</t>
+  </si>
+  <si>
+    <t>Concepto</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Detalle</t>
+  </si>
+  <si>
+    <t>% de Siniestralidad</t>
+  </si>
+  <si>
+    <t>Calculo de Pricing</t>
+  </si>
+  <si>
+    <t>Póliza promedio mensual</t>
+  </si>
+  <si>
+    <t>Consulta puntual</t>
+  </si>
+  <si>
+    <t>Gasto promedio en siniestros</t>
+  </si>
+  <si>
+    <t>Cantidad de accidentes promedio anual de asegurado riesgoso</t>
+  </si>
+  <si>
+    <t>Packs de consulta Mensuales</t>
+  </si>
+  <si>
+    <t>Usuarios con siniestros</t>
+  </si>
+  <si>
+    <t>Consultas ilimitadas (por mes o por año?)</t>
+  </si>
+  <si>
+    <t>Gasto promedio anual en siniestros</t>
+  </si>
+  <si>
+    <t>Promedio de ganancia</t>
+  </si>
+  <si>
+    <t>1200000 * 4320000 / 2</t>
+  </si>
+  <si>
+    <t>Comparación reduciendo la tasa de siniestralidad</t>
+  </si>
+  <si>
+    <t>% a compartir</t>
+  </si>
+  <si>
+    <t>Mejora del % de siniestralidad (puntos de mejora)</t>
+  </si>
+  <si>
+    <t>Nuestra ganancia anual</t>
+  </si>
+  <si>
+    <t>8160000 * J10</t>
+  </si>
+  <si>
+    <t>Nuevo % de siniestralidad</t>
+  </si>
+  <si>
+    <t>Ganancia mensual</t>
+  </si>
+  <si>
+    <t>8160000 * J10 / 12</t>
+  </si>
+  <si>
+    <t>8160000 * J10 / # total asegurados</t>
+  </si>
+  <si>
+    <t>Ganancia promedio</t>
+  </si>
+  <si>
+    <t>Consultas ilimitadas por año</t>
+  </si>
+  <si>
+    <t>A ojo</t>
+  </si>
+  <si>
+    <t>Valor mensual</t>
+  </si>
+  <si>
+    <t>Consultas ilimitadas / 12</t>
+  </si>
+  <si>
+    <t>% 6 meses</t>
+  </si>
+  <si>
+    <t>Ganancia del 20%</t>
+  </si>
+  <si>
+    <t>Comparación aumentando la póliza</t>
+  </si>
+  <si>
+    <t>Consultas ilimitadas por 6 meses</t>
+  </si>
+  <si>
+    <t>(Consulta mensual + ganancia) * 6</t>
+  </si>
+  <si>
+    <t>Nueva póliza promedio mensual</t>
+  </si>
+  <si>
+    <t>% mes</t>
+  </si>
+  <si>
+    <t>Ganancia del 50%</t>
+  </si>
+  <si>
+    <t>Ganancia de los asegurados riesgosos</t>
+  </si>
+  <si>
+    <t>Consultas ilimitadas por mes</t>
+  </si>
+  <si>
+    <t>Consulta mensual + ganancia</t>
+  </si>
+  <si>
+    <t>Costos de los asegurados riesgosos</t>
+  </si>
+  <si>
+    <t>% puntual</t>
+  </si>
+  <si>
+    <t>Ganancia del 100%</t>
+  </si>
+  <si>
+    <t>Diferencia</t>
+  </si>
+  <si>
+    <t>Consulta única</t>
+  </si>
+  <si>
+    <t>Consulta puntual * 4</t>
   </si>
 </sst>
 </file>
@@ -118,7 +259,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -126,14 +267,118 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -144,7 +389,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -434,7 +679,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -555,11 +800,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="59.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
@@ -676,12 +921,420 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4">
+        <v>80000</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6">
+        <v>350</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4">
+        <f>(F2/100)*F1</f>
+        <v>4800</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8">
+        <f>F5*F4*F7</f>
+        <v>36000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1">
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9">
+        <f>AVERAGE(F15,F22)</f>
+        <v>8160000</v>
+      </c>
+      <c r="K9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="I10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11">
+        <f>J9*J10</f>
+        <v>4080000</v>
+      </c>
+      <c r="K11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6">
+        <f>F2-F11</f>
+        <v>4</v>
+      </c>
+      <c r="I12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12">
+        <f>J11/12</f>
+        <v>340000</v>
+      </c>
+      <c r="K12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6">
+        <f>(F12/100)*F1</f>
+        <v>3200</v>
+      </c>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13">
+        <f>J11/F1</f>
+        <v>51</v>
+      </c>
+      <c r="K13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6">
+        <f>F5*F4*F13</f>
+        <v>24000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8">
+        <f>F8-F14</f>
+        <v>12000000</v>
+      </c>
+      <c r="I15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15">
+        <v>4500000</v>
+      </c>
+      <c r="K15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="I16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16">
+        <f>J15/12</f>
+        <v>375000</v>
+      </c>
+      <c r="K16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1">
+      <c r="I17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17">
+        <v>1.2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A18" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="I18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18">
+        <f>J17*J16*6</f>
+        <v>2700000</v>
+      </c>
+      <c r="K18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4">
+        <v>700</v>
+      </c>
+      <c r="I19" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19">
+        <v>1.5</v>
+      </c>
+      <c r="K19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6">
+        <f>F7*12*F19</f>
+        <v>40320000</v>
+      </c>
+      <c r="I20" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20">
+        <f>J19*J16</f>
+        <v>562500</v>
+      </c>
+      <c r="K20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6">
+        <f>F5*F4*F7</f>
+        <v>36000000</v>
+      </c>
+      <c r="I21" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="8">
+        <f>F20-F21</f>
+        <v>4320000</v>
+      </c>
+      <c r="I22" t="s">
+        <v>69</v>
+      </c>
+      <c r="J22">
+        <f>J13*J21</f>
+        <v>204</v>
+      </c>
+      <c r="K22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>